--- a/Excel Data/CDRIssuanceinput.xlsx
+++ b/Excel Data/CDRIssuanceinput.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>DEBIT.ACCT.NO</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>4220190909123</t>
+  </si>
+  <si>
+    <t>CHEQUE.NUMBER</t>
+  </si>
+  <si>
+    <t>ORDERING.CUST:1</t>
+  </si>
+  <si>
+    <t>PAYMENT.DETAILS:1</t>
+  </si>
+  <si>
+    <t>COMMISSION.AMT:1</t>
+  </si>
+  <si>
+    <t>PURPOSE:1</t>
   </si>
 </sst>
 </file>
@@ -376,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,14 +402,15 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,22 +421,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000264788</v>
       </c>
@@ -430,19 +461,19 @@
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>3338980967</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Excel Data/CDRIssuanceinput.xlsx
+++ b/Excel Data/CDRIssuanceinput.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>DEBIT.ACCT.NO</t>
   </si>
@@ -73,19 +73,31 @@
   </si>
   <si>
     <t>PURPOSE:1</t>
+  </si>
+  <si>
+    <t>COMMISSION.TYPE:1</t>
+  </si>
+  <si>
+    <t>0952</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF067D17"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,9 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,15 +417,15 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,38 +435,41 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000264788</v>
       </c>
@@ -461,23 +479,27 @@
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3338980967</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>